--- a/trees.xlsx
+++ b/trees.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/weath/Documents/F22-296/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5973CAB-B929-E54B-BF64-C5712B4E6A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03AC44CB-30A4-4946-A45F-6005FA62CE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{A144902E-B68A-354D-B0E2-B5CAA57DAC6A}"/>
+    <workbookView xWindow="220" yWindow="520" windowWidth="35840" windowHeight="21900" activeTab="4" xr2:uid="{A144902E-B68A-354D-B0E2-B5CAA57DAC6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1 (3)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1 (4)" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet1 (5)" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,19 +40,197 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t xml:space="preserve">A </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="58">
+  <si>
+    <t>∀x(Px⊃Qx),∃x¬Px⊢∀x¬Qx</t>
+  </si>
+  <si>
+    <t>∀x(Px⊃Qx)</t>
+  </si>
+  <si>
+    <t>∃x¬Px</t>
+  </si>
+  <si>
+    <t>¬∀x¬Qx</t>
+  </si>
+  <si>
+    <t>¬Pa</t>
+  </si>
+  <si>
+    <t>Pa⊃Qa</t>
+  </si>
+  <si>
+    <t>Pb⊃Qb</t>
+  </si>
+  <si>
+    <t>Qa</t>
+  </si>
+  <si>
+    <t>¬Pb</t>
+  </si>
+  <si>
+    <t>Qb</t>
+  </si>
+  <si>
+    <t>Model from the left-most branch</t>
+  </si>
+  <si>
+    <t>D  = {da, db}</t>
+  </si>
+  <si>
+    <t>∃x¬¬Qx</t>
+  </si>
+  <si>
+    <t>¬¬Qb</t>
+  </si>
+  <si>
+    <t>There are open branches, so it is **invalid**</t>
+  </si>
+  <si>
+    <t>V(a) = da, V(b) = db</t>
+  </si>
+  <si>
+    <t>V(P) = {}</t>
+  </si>
+  <si>
+    <t>V(Q) = {db}</t>
+  </si>
+  <si>
+    <t>¬∃x¬Qx</t>
+  </si>
+  <si>
+    <t>∀x¬¬Qx</t>
+  </si>
+  <si>
+    <t>¬¬Qa</t>
+  </si>
+  <si>
+    <t>D  = {da}</t>
+  </si>
+  <si>
+    <t>V(a) = da</t>
+  </si>
+  <si>
+    <t>V(Q) = {da}</t>
+  </si>
+  <si>
+    <t>⊢∀x∃yRxy⊃∃xRxx</t>
+  </si>
+  <si>
+    <t>¬∀x∃yRxy⊃∃xRxx</t>
+  </si>
+  <si>
+    <t>∀x∃yRxy</t>
+  </si>
+  <si>
+    <t>¬∃xRxx</t>
+  </si>
+  <si>
+    <t>∀x¬Rxx</t>
+  </si>
+  <si>
+    <t>∃yRay</t>
+  </si>
+  <si>
+    <t>Rab</t>
+  </si>
+  <si>
+    <t>¬Raa</t>
+  </si>
+  <si>
+    <t>∃yRby</t>
+  </si>
+  <si>
+    <t>Rbc</t>
+  </si>
+  <si>
+    <t>¬Rbb</t>
+  </si>
+  <si>
+    <t>The tree continues like this infinitely, so it is open, so this is invalid.</t>
+  </si>
+  <si>
+    <t>Model from the only branch</t>
+  </si>
+  <si>
+    <t>D = {da, db, …}</t>
+  </si>
+  <si>
+    <t>V(a) = da, V(b) = db, …</t>
+  </si>
+  <si>
+    <t>V(R) = {&lt;da, db&gt;, &lt;db, dc&gt;, …}</t>
+  </si>
+  <si>
+    <t>∃x∃yRxy⊢∃x∃yRyx</t>
+  </si>
+  <si>
+    <t>∃x∃yRxy</t>
+  </si>
+  <si>
+    <t>¬∃x∃yRyx</t>
+  </si>
+  <si>
+    <t>∀x¬∃yRyx</t>
+  </si>
+  <si>
+    <t>¬∃yRyb</t>
+  </si>
+  <si>
+    <t>∀y¬Ryb</t>
+  </si>
+  <si>
+    <t>¬Rab</t>
+  </si>
+  <si>
+    <t>The tree closes (it has Rab being true and false), so this is **valid**.</t>
+  </si>
+  <si>
+    <t>⊢∃x(∃y(Fy)⊃Fx)</t>
+  </si>
+  <si>
+    <t>¬∃x(∃y(Fy)⊃Fx)</t>
+  </si>
+  <si>
+    <t>∀x¬(∃y(Fy)⊃Fx)</t>
+  </si>
+  <si>
+    <t>¬(∃y(Fy)⊃Fa)</t>
+  </si>
+  <si>
+    <t>∃y(Fy)</t>
+  </si>
+  <si>
+    <t>¬Fa</t>
+  </si>
+  <si>
+    <t>Fb</t>
+  </si>
+  <si>
+    <t>¬(∃y(Fy)⊃Fb)</t>
+  </si>
+  <si>
+    <t>¬Fb</t>
+  </si>
+  <si>
+    <t>The tree closes (it has Fb being true and false), so this is **valid**.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -74,10 +256,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -94,130 +282,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>641350</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="16" name="Group 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD8935D-6291-5B64-412C-40EBE808DF1B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3943350" y="654050"/>
-          <a:ext cx="1200150" cy="717550"/>
-          <a:chOff x="4076700" y="679450"/>
-          <a:chExt cx="920750" cy="469900"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="6" name="Straight Connector 5">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3CF50A5-4C28-0D81-B50A-2D29620F4B72}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm flipH="1">
-            <a:off x="4076700" y="679450"/>
-            <a:ext cx="457200" cy="469900"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-      <xdr:cxnSp macro="">
-        <xdr:nvCxnSpPr>
-          <xdr:cNvPr id="9" name="Straight Connector 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{301F1752-454D-494B-89EB-A4CFA78608D8}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvCxnSpPr/>
-        </xdr:nvCxnSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="4527550" y="679450"/>
-            <a:ext cx="469900" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="line">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:ln w="19050">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-            <a:headEnd type="none"/>
-            <a:tailEnd type="triangle"/>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-      </xdr:cxnSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -517,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F66F82D8-4CD9-DE47-970A-CEB641544490}">
-  <dimension ref="F3"/>
+  <dimension ref="B2:I23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -528,13 +592,458 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="1" t="s">
+    <row r="2" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F76A9E63-E16C-534A-9AAD-4CA56A227C07}">
+  <dimension ref="B2:H21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="4:8" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B63C2E1-25F9-A746-B292-CB83AAF93CE4}">
+  <dimension ref="B2:F21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{768B02DC-4712-D74B-AF44-21E9583D7698}">
+  <dimension ref="B2:F13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F13" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1CD42D1-C3AE-2641-8DAA-2BE1F9700C56}">
+  <dimension ref="B2:F14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F4" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F5" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F7" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F9" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F11" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F14" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>